--- a/2k16/Rankings.xlsx
+++ b/2k16/Rankings.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Rank</t>
   </si>
@@ -228,6 +228,21 @@
   </si>
   <si>
     <t>sigmoid</t>
+  </si>
+  <si>
+    <t>St Joseph VT</t>
+  </si>
+  <si>
+    <t>UNC Wilmington</t>
+  </si>
+  <si>
+    <t>Bakersfield Col</t>
+  </si>
+  <si>
+    <t>Weber St</t>
+  </si>
+  <si>
+    <t>Southern Univ</t>
   </si>
 </sst>
 </file>
@@ -280,8 +295,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E64" totalsRowShown="0">
-  <autoFilter ref="A1:E64"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E69" totalsRowShown="0">
+  <autoFilter ref="A1:E69"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Team"/>
     <tableColumn id="2" name="equalized"/>
@@ -556,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1114,545 +1129,630 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33">
+        <v>68</v>
+      </c>
+      <c r="C33">
+        <v>68</v>
+      </c>
+      <c r="D33">
+        <v>68</v>
+      </c>
+      <c r="E33">
         <v>32</v>
-      </c>
-      <c r="B33">
-        <v>27</v>
-      </c>
-      <c r="C33">
-        <v>29</v>
-      </c>
-      <c r="D33">
-        <v>32</v>
-      </c>
-      <c r="E33">
-        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>27</v>
+      </c>
+      <c r="C34">
+        <v>29</v>
+      </c>
+      <c r="D34">
+        <v>32</v>
+      </c>
+      <c r="E34">
         <v>33</v>
-      </c>
-      <c r="B34">
-        <v>23</v>
-      </c>
-      <c r="C34">
-        <v>22</v>
-      </c>
-      <c r="D34">
-        <v>20</v>
-      </c>
-      <c r="E34">
-        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>23</v>
+      </c>
+      <c r="C35">
+        <v>22</v>
+      </c>
+      <c r="D35">
+        <v>20</v>
+      </c>
+      <c r="E35">
         <v>34</v>
-      </c>
-      <c r="B35">
-        <v>37</v>
-      </c>
-      <c r="C35">
-        <v>37</v>
-      </c>
-      <c r="D35">
-        <v>14</v>
-      </c>
-      <c r="E35">
-        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>37</v>
+      </c>
+      <c r="C36">
+        <v>37</v>
+      </c>
+      <c r="D36">
+        <v>14</v>
+      </c>
+      <c r="E36">
         <v>35</v>
-      </c>
-      <c r="B36">
-        <v>24</v>
-      </c>
-      <c r="C36">
-        <v>27</v>
-      </c>
-      <c r="D36">
-        <v>9</v>
-      </c>
-      <c r="E36">
-        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>24</v>
+      </c>
+      <c r="C37">
+        <v>27</v>
+      </c>
+      <c r="D37">
+        <v>9</v>
+      </c>
+      <c r="E37">
         <v>36</v>
-      </c>
-      <c r="B37">
-        <v>38</v>
-      </c>
-      <c r="C37">
-        <v>38</v>
-      </c>
-      <c r="D37">
-        <v>39</v>
-      </c>
-      <c r="E37">
-        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>38</v>
+      </c>
+      <c r="C38">
+        <v>38</v>
+      </c>
+      <c r="D38">
+        <v>39</v>
+      </c>
+      <c r="E38">
         <v>37</v>
-      </c>
-      <c r="B38">
-        <v>21</v>
-      </c>
-      <c r="C38">
-        <v>24</v>
-      </c>
-      <c r="D38">
-        <v>25</v>
-      </c>
-      <c r="E38">
-        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>21</v>
+      </c>
+      <c r="C39">
+        <v>24</v>
+      </c>
+      <c r="D39">
+        <v>25</v>
+      </c>
+      <c r="E39">
         <v>38</v>
-      </c>
-      <c r="B39">
-        <v>30</v>
-      </c>
-      <c r="C39">
-        <v>32</v>
-      </c>
-      <c r="D39">
-        <v>26</v>
-      </c>
-      <c r="E39">
-        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>30</v>
+      </c>
+      <c r="C40">
+        <v>32</v>
+      </c>
+      <c r="D40">
+        <v>26</v>
+      </c>
+      <c r="E40">
         <v>39</v>
-      </c>
-      <c r="B40">
-        <v>43</v>
-      </c>
-      <c r="C40">
-        <v>43</v>
-      </c>
-      <c r="D40">
-        <v>42</v>
-      </c>
-      <c r="E40">
-        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>43</v>
+      </c>
+      <c r="C41">
+        <v>43</v>
+      </c>
+      <c r="D41">
+        <v>42</v>
+      </c>
+      <c r="E41">
         <v>40</v>
-      </c>
-      <c r="B41">
-        <v>33</v>
-      </c>
-      <c r="C41">
-        <v>36</v>
-      </c>
-      <c r="D41">
-        <v>38</v>
-      </c>
-      <c r="E41">
-        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>33</v>
+      </c>
+      <c r="C42">
+        <v>36</v>
+      </c>
+      <c r="D42">
+        <v>38</v>
+      </c>
+      <c r="E42">
         <v>41</v>
-      </c>
-      <c r="B42">
-        <v>15</v>
-      </c>
-      <c r="C42">
-        <v>17</v>
-      </c>
-      <c r="D42">
-        <v>28</v>
-      </c>
-      <c r="E42">
-        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>15</v>
+      </c>
+      <c r="C43">
+        <v>17</v>
+      </c>
+      <c r="D43">
+        <v>28</v>
+      </c>
+      <c r="E43">
         <v>42</v>
-      </c>
-      <c r="B43">
-        <v>40</v>
-      </c>
-      <c r="C43">
-        <v>40</v>
-      </c>
-      <c r="D43">
-        <v>40</v>
-      </c>
-      <c r="E43">
-        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>40</v>
+      </c>
+      <c r="C44">
+        <v>40</v>
+      </c>
+      <c r="D44">
+        <v>40</v>
+      </c>
+      <c r="E44">
         <v>43</v>
-      </c>
-      <c r="B44">
-        <v>47</v>
-      </c>
-      <c r="C44">
-        <v>47</v>
-      </c>
-      <c r="D44">
-        <v>45</v>
-      </c>
-      <c r="E44">
-        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>47</v>
+      </c>
+      <c r="C45">
+        <v>47</v>
+      </c>
+      <c r="D45">
+        <v>45</v>
+      </c>
+      <c r="E45">
         <v>44</v>
-      </c>
-      <c r="B45">
-        <v>39</v>
-      </c>
-      <c r="C45">
-        <v>39</v>
-      </c>
-      <c r="D45">
-        <v>33</v>
-      </c>
-      <c r="E45">
-        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>39</v>
+      </c>
+      <c r="C46">
+        <v>39</v>
+      </c>
+      <c r="D46">
+        <v>33</v>
+      </c>
+      <c r="E46">
         <v>45</v>
-      </c>
-      <c r="B46">
-        <v>41</v>
-      </c>
-      <c r="C46">
-        <v>42</v>
-      </c>
-      <c r="D46">
-        <v>41</v>
-      </c>
-      <c r="E46">
-        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>41</v>
+      </c>
+      <c r="C47">
+        <v>42</v>
+      </c>
+      <c r="D47">
+        <v>41</v>
+      </c>
+      <c r="E47">
         <v>46</v>
-      </c>
-      <c r="B47">
-        <v>55</v>
-      </c>
-      <c r="C47">
-        <v>56</v>
-      </c>
-      <c r="D47">
-        <v>49</v>
-      </c>
-      <c r="E47">
-        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>55</v>
+      </c>
+      <c r="C48">
+        <v>56</v>
+      </c>
+      <c r="D48">
+        <v>49</v>
+      </c>
+      <c r="E48">
         <v>47</v>
-      </c>
-      <c r="B48">
-        <v>56</v>
-      </c>
-      <c r="C48">
-        <v>58</v>
-      </c>
-      <c r="D48">
-        <v>48</v>
-      </c>
-      <c r="E48">
-        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>56</v>
+      </c>
+      <c r="C49">
+        <v>58</v>
+      </c>
+      <c r="D49">
         <v>48</v>
       </c>
-      <c r="B49">
-        <v>52</v>
-      </c>
-      <c r="C49">
-        <v>55</v>
-      </c>
-      <c r="D49">
-        <v>58</v>
-      </c>
       <c r="E49">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>52</v>
+      </c>
+      <c r="C50">
+        <v>55</v>
+      </c>
+      <c r="D50">
+        <v>58</v>
+      </c>
+      <c r="E50">
         <v>49</v>
-      </c>
-      <c r="B50">
-        <v>62</v>
-      </c>
-      <c r="C50">
-        <v>62</v>
-      </c>
-      <c r="D50">
-        <v>59</v>
-      </c>
-      <c r="E50">
-        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>62</v>
+      </c>
+      <c r="C51">
+        <v>62</v>
+      </c>
+      <c r="D51">
+        <v>59</v>
+      </c>
+      <c r="E51">
         <v>50</v>
-      </c>
-      <c r="B51">
-        <v>46</v>
-      </c>
-      <c r="C51">
-        <v>46</v>
-      </c>
-      <c r="D51">
-        <v>46</v>
-      </c>
-      <c r="E51">
-        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52">
+        <v>68</v>
+      </c>
+      <c r="C52">
+        <v>68</v>
+      </c>
+      <c r="D52">
+        <v>68</v>
+      </c>
+      <c r="E52">
         <v>51</v>
-      </c>
-      <c r="B52">
-        <v>53</v>
-      </c>
-      <c r="C52">
-        <v>52</v>
-      </c>
-      <c r="D52">
-        <v>53</v>
-      </c>
-      <c r="E52">
-        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53">
+        <v>46</v>
+      </c>
+      <c r="C53">
+        <v>46</v>
+      </c>
+      <c r="D53">
+        <v>46</v>
+      </c>
+      <c r="E53">
         <v>52</v>
-      </c>
-      <c r="B53">
-        <v>54</v>
-      </c>
-      <c r="C53">
-        <v>48</v>
-      </c>
-      <c r="D53">
-        <v>55</v>
-      </c>
-      <c r="E53">
-        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54">
         <v>53</v>
       </c>
-      <c r="B54">
-        <v>63</v>
-      </c>
       <c r="C54">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D54">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E54">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55">
         <v>54</v>
       </c>
-      <c r="B55">
-        <v>45</v>
-      </c>
       <c r="C55">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D55">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E55">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56">
+        <v>63</v>
+      </c>
+      <c r="C56">
+        <v>63</v>
+      </c>
+      <c r="D56">
+        <v>54</v>
+      </c>
+      <c r="E56">
         <v>55</v>
-      </c>
-      <c r="B56">
-        <v>58</v>
-      </c>
-      <c r="C56">
-        <v>54</v>
-      </c>
-      <c r="D56">
-        <v>51</v>
-      </c>
-      <c r="E56">
-        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57">
+        <v>45</v>
+      </c>
+      <c r="C57">
+        <v>45</v>
+      </c>
+      <c r="D57">
+        <v>60</v>
+      </c>
+      <c r="E57">
         <v>56</v>
-      </c>
-      <c r="B57">
-        <v>49</v>
-      </c>
-      <c r="C57">
-        <v>51</v>
-      </c>
-      <c r="D57">
-        <v>57</v>
-      </c>
-      <c r="E57">
-        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58">
+        <v>58</v>
+      </c>
+      <c r="C58">
+        <v>54</v>
+      </c>
+      <c r="D58">
+        <v>51</v>
+      </c>
+      <c r="E58">
         <v>57</v>
-      </c>
-      <c r="B58">
-        <v>59</v>
-      </c>
-      <c r="C58">
-        <v>59</v>
-      </c>
-      <c r="D58">
-        <v>47</v>
-      </c>
-      <c r="E58">
-        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59">
+        <v>49</v>
+      </c>
+      <c r="C59">
+        <v>51</v>
+      </c>
+      <c r="D59">
+        <v>57</v>
+      </c>
+      <c r="E59">
         <v>58</v>
-      </c>
-      <c r="B59">
-        <v>51</v>
-      </c>
-      <c r="C59">
-        <v>57</v>
-      </c>
-      <c r="D59">
-        <v>50</v>
-      </c>
-      <c r="E59">
-        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60">
         <v>59</v>
       </c>
-      <c r="B60">
-        <v>48</v>
-      </c>
       <c r="C60">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D60">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E60">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61">
+        <v>68</v>
+      </c>
+      <c r="C61">
+        <v>68</v>
+      </c>
+      <c r="D61">
+        <v>68</v>
+      </c>
+      <c r="E61">
         <v>60</v>
-      </c>
-      <c r="B61">
-        <v>60</v>
-      </c>
-      <c r="C61">
-        <v>60</v>
-      </c>
-      <c r="D61">
-        <v>63</v>
-      </c>
-      <c r="E61">
-        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>58</v>
+      </c>
+      <c r="B62">
+        <v>51</v>
+      </c>
+      <c r="C62">
+        <v>57</v>
+      </c>
+      <c r="D62">
+        <v>50</v>
+      </c>
+      <c r="E62">
         <v>61</v>
-      </c>
-      <c r="B62">
-        <v>57</v>
-      </c>
-      <c r="C62">
-        <v>53</v>
-      </c>
-      <c r="D62">
-        <v>52</v>
-      </c>
-      <c r="E62">
-        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63">
+        <v>68</v>
+      </c>
+      <c r="C63">
+        <v>68</v>
+      </c>
+      <c r="D63">
+        <v>68</v>
+      </c>
+      <c r="E63">
         <v>62</v>
-      </c>
-      <c r="B63">
-        <v>50</v>
-      </c>
-      <c r="C63">
-        <v>50</v>
-      </c>
-      <c r="D63">
-        <v>56</v>
-      </c>
-      <c r="E63">
-        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64">
+        <v>48</v>
+      </c>
+      <c r="C64">
+        <v>49</v>
+      </c>
+      <c r="D64">
+        <v>61</v>
+      </c>
+      <c r="E64">
         <v>63</v>
       </c>
-      <c r="B64">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65">
+        <v>60</v>
+      </c>
+      <c r="C65">
+        <v>60</v>
+      </c>
+      <c r="D65">
+        <v>63</v>
+      </c>
+      <c r="E65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>61</v>
       </c>
-      <c r="C64">
+      <c r="B66">
+        <v>57</v>
+      </c>
+      <c r="C66">
+        <v>53</v>
+      </c>
+      <c r="D66">
+        <v>52</v>
+      </c>
+      <c r="E66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67">
+        <v>50</v>
+      </c>
+      <c r="C67">
+        <v>50</v>
+      </c>
+      <c r="D67">
+        <v>56</v>
+      </c>
+      <c r="E67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68">
+        <v>68</v>
+      </c>
+      <c r="C68">
+        <v>68</v>
+      </c>
+      <c r="D68">
+        <v>68</v>
+      </c>
+      <c r="E68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>63</v>
+      </c>
+      <c r="B69">
         <v>61</v>
       </c>
-      <c r="D64">
+      <c r="C69">
+        <v>61</v>
+      </c>
+      <c r="D69">
         <v>62</v>
       </c>
-      <c r="E64">
+      <c r="E69">
         <v>68</v>
       </c>
     </row>

--- a/2k16/Rankings.xlsx
+++ b/2k16/Rankings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="28720" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="100" yWindow="480" windowWidth="28720" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -297,6 +297,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E69" totalsRowShown="0">
   <autoFilter ref="A1:E69"/>
+  <sortState ref="A2:E69">
+    <sortCondition ref="D1:D69"/>
+  </sortState>
   <tableColumns count="5">
     <tableColumn id="1" name="Team"/>
     <tableColumn id="2" name="equalized"/>
@@ -573,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -602,512 +605,512 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>11</v>
-      </c>
       <c r="E3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>31</v>
-      </c>
-      <c r="C4">
-        <v>33</v>
-      </c>
-      <c r="D4">
-        <v>18</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
       <c r="D5">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>28</v>
-      </c>
-      <c r="C6">
-        <v>28</v>
-      </c>
-      <c r="D6">
-        <v>30</v>
-      </c>
       <c r="E6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>19</v>
+      </c>
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
       <c r="E7">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>13</v>
-      </c>
-      <c r="D8">
-        <v>27</v>
-      </c>
       <c r="E8">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>21</v>
+      </c>
+      <c r="D9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>19</v>
-      </c>
-      <c r="C9">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>37</v>
-      </c>
       <c r="E9">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>27</v>
+      </c>
+      <c r="D10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>16</v>
-      </c>
       <c r="E10">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>14</v>
+      </c>
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>34</v>
-      </c>
-      <c r="C11">
-        <v>35</v>
-      </c>
-      <c r="D11">
-        <v>36</v>
-      </c>
       <c r="E11">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>6</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
       <c r="E12">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>35</v>
-      </c>
       <c r="C13">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E13">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>18</v>
-      </c>
-      <c r="C14">
+      <c r="E14">
         <v>14</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <v>37</v>
+      </c>
+      <c r="C15">
+        <v>37</v>
+      </c>
+      <c r="D15">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>17</v>
-      </c>
-      <c r="C15">
-        <v>20</v>
-      </c>
-      <c r="D15">
-        <v>13</v>
-      </c>
       <c r="E15">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>42</v>
-      </c>
-      <c r="C16">
-        <v>41</v>
-      </c>
-      <c r="D16">
-        <v>44</v>
-      </c>
       <c r="E16">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
       <c r="E17">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>26</v>
+      </c>
+      <c r="D18">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>29</v>
-      </c>
-      <c r="C18">
-        <v>23</v>
-      </c>
-      <c r="D18">
-        <v>29</v>
-      </c>
       <c r="E18">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>31</v>
+      </c>
+      <c r="C19">
+        <v>33</v>
+      </c>
+      <c r="D19">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>12</v>
-      </c>
-      <c r="C19">
-        <v>12</v>
-      </c>
-      <c r="D19">
-        <v>12</v>
-      </c>
       <c r="E19">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>32</v>
-      </c>
-      <c r="C20">
-        <v>30</v>
-      </c>
-      <c r="D20">
-        <v>21</v>
-      </c>
       <c r="E20">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>22</v>
+      </c>
+      <c r="D21">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>7</v>
-      </c>
       <c r="E21">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>32</v>
+      </c>
+      <c r="C22">
+        <v>30</v>
+      </c>
+      <c r="D22">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="C22">
-        <v>4</v>
-      </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
       <c r="E22">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>26</v>
-      </c>
-      <c r="C23">
-        <v>25</v>
-      </c>
-      <c r="D23">
-        <v>34</v>
-      </c>
       <c r="E23">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>36</v>
+      </c>
+      <c r="C24">
+        <v>31</v>
+      </c>
+      <c r="D24">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>25</v>
-      </c>
-      <c r="C24">
-        <v>21</v>
-      </c>
-      <c r="D24">
-        <v>8</v>
-      </c>
       <c r="E24">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>36</v>
-      </c>
-      <c r="C25">
-        <v>31</v>
-      </c>
-      <c r="D25">
-        <v>23</v>
-      </c>
       <c r="E25">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26">
+        <v>21</v>
+      </c>
+      <c r="C26">
+        <v>24</v>
+      </c>
+      <c r="D26">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>13</v>
-      </c>
-      <c r="C26">
-        <v>19</v>
-      </c>
-      <c r="D26">
-        <v>6</v>
-      </c>
       <c r="E26">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>32</v>
+      </c>
+      <c r="D27">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>44</v>
-      </c>
-      <c r="C27">
-        <v>44</v>
-      </c>
-      <c r="D27">
-        <v>43</v>
-      </c>
       <c r="E27">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <v>13</v>
+      </c>
+      <c r="D28">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>16</v>
-      </c>
-      <c r="C28">
-        <v>16</v>
-      </c>
-      <c r="D28">
-        <v>19</v>
-      </c>
       <c r="E28">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>17</v>
+      </c>
+      <c r="D29">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>8</v>
-      </c>
-      <c r="C29">
-        <v>9</v>
-      </c>
-      <c r="D29">
-        <v>24</v>
-      </c>
       <c r="E29">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>10</v>
-      </c>
       <c r="C30">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D30">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E30">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>28</v>
+      </c>
+      <c r="C31">
+        <v>28</v>
+      </c>
+      <c r="D31">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>20</v>
-      </c>
-      <c r="C31">
-        <v>26</v>
-      </c>
-      <c r="D31">
-        <v>17</v>
-      </c>
       <c r="E31">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1129,274 +1132,274 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="C33">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="D33">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="E33">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C34">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E34">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B35">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C35">
+        <v>25</v>
+      </c>
+      <c r="D35">
+        <v>34</v>
+      </c>
+      <c r="E35">
         <v>22</v>
-      </c>
-      <c r="D35">
-        <v>20</v>
-      </c>
-      <c r="E35">
-        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
         <v>34</v>
       </c>
-      <c r="B36">
-        <v>37</v>
-      </c>
-      <c r="C36">
-        <v>37</v>
-      </c>
       <c r="D36">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E36">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37">
+        <v>34</v>
+      </c>
+      <c r="C37">
         <v>35</v>
       </c>
-      <c r="B37">
-        <v>24</v>
-      </c>
-      <c r="C37">
-        <v>27</v>
-      </c>
       <c r="D37">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E37">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B38">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C38">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D38">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E38">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C39">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D39">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E39">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40">
         <v>38</v>
       </c>
-      <c r="B40">
-        <v>30</v>
-      </c>
       <c r="C40">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D40">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E40">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>40</v>
+      </c>
+      <c r="D41">
+        <v>40</v>
+      </c>
+      <c r="E41">
         <v>43</v>
-      </c>
-      <c r="C41">
-        <v>43</v>
-      </c>
-      <c r="D41">
-        <v>42</v>
-      </c>
-      <c r="E41">
-        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C42">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D42">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E42">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B43">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C43">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D43">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E43">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B44">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C44">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D44">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E44">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B45">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C45">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D45">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E45">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>47</v>
+      </c>
+      <c r="C46">
+        <v>47</v>
+      </c>
+      <c r="D46">
+        <v>45</v>
+      </c>
+      <c r="E46">
         <v>44</v>
-      </c>
-      <c r="B46">
-        <v>39</v>
-      </c>
-      <c r="C46">
-        <v>39</v>
-      </c>
-      <c r="D46">
-        <v>33</v>
-      </c>
-      <c r="E46">
-        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C47">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D47">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E47">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C48">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D48">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E48">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1418,70 +1421,70 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B50">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C50">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D50">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E50">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C51">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D51">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E51">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C52">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D52">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E52">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C53">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D53">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E53">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -1503,228 +1506,228 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B55">
+        <v>63</v>
+      </c>
+      <c r="C55">
+        <v>63</v>
+      </c>
+      <c r="D55">
         <v>54</v>
       </c>
-      <c r="C55">
-        <v>48</v>
-      </c>
-      <c r="D55">
+      <c r="E55">
         <v>55</v>
-      </c>
-      <c r="E55">
-        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B56">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C56">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D56">
+        <v>55</v>
+      </c>
+      <c r="E56">
         <v>54</v>
-      </c>
-      <c r="E56">
-        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C57">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D57">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E57">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58">
+        <v>49</v>
+      </c>
+      <c r="C58">
+        <v>51</v>
+      </c>
+      <c r="D58">
+        <v>57</v>
+      </c>
+      <c r="E58">
         <v>58</v>
-      </c>
-      <c r="C58">
-        <v>54</v>
-      </c>
-      <c r="D58">
-        <v>51</v>
-      </c>
-      <c r="E58">
-        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B59">
+        <v>52</v>
+      </c>
+      <c r="C59">
+        <v>55</v>
+      </c>
+      <c r="D59">
+        <v>58</v>
+      </c>
+      <c r="E59">
         <v>49</v>
-      </c>
-      <c r="C59">
-        <v>51</v>
-      </c>
-      <c r="D59">
-        <v>57</v>
-      </c>
-      <c r="E59">
-        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B60">
+        <v>62</v>
+      </c>
+      <c r="C60">
+        <v>62</v>
+      </c>
+      <c r="D60">
         <v>59</v>
       </c>
-      <c r="C60">
-        <v>59</v>
-      </c>
-      <c r="D60">
-        <v>47</v>
-      </c>
       <c r="E60">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B61">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C61">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D61">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E61">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B62">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C62">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D62">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E62">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B63">
+        <v>61</v>
+      </c>
+      <c r="C63">
+        <v>61</v>
+      </c>
+      <c r="D63">
+        <v>62</v>
+      </c>
+      <c r="E63">
         <v>68</v>
-      </c>
-      <c r="C63">
-        <v>68</v>
-      </c>
-      <c r="D63">
-        <v>68</v>
-      </c>
-      <c r="E63">
-        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B64">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C64">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D64">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E64">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C65">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D65">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E65">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C66">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D66">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E66">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C67">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D67">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E67">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B68">
         <v>68</v>
@@ -1736,24 +1739,24 @@
         <v>68</v>
       </c>
       <c r="E68">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C69">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D69">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E69">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
